--- a/IM.xlsx
+++ b/IM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Startup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Inventory" sheetId="3" r:id="rId3"/>
+    <sheet name="Billing and Reporting" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>Inventory Management</t>
   </si>
@@ -262,6 +263,57 @@
   </si>
   <si>
     <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>Inventory Data</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Outlet</t>
+  </si>
+  <si>
+    <t>Update Stock</t>
+  </si>
+  <si>
+    <t>Update the stock quantity on arrival of new Stock</t>
+  </si>
+  <si>
+    <t>Update CP and SP</t>
+  </si>
+  <si>
+    <t>Arrival Date</t>
+  </si>
+  <si>
+    <t>Bill Details</t>
+  </si>
+  <si>
+    <t>• Link to BnR for keeping the log of all the Bills on every arrival of stock
+• We will map it through Bill No or some unique key
+• Leasing or Lending details</t>
+  </si>
+  <si>
+    <t>Update all the fields and specifications
+• Dealer name
+• Size
+• Color etc</t>
+  </si>
+  <si>
+    <t>Update the stock quantity on arrival of new Stock from Warehouse
+• Here we wil keep a flag which will signfiy that Product is moved to Outlet from warehouse, but not yet sold
+• This will not update the Stock DB unless SOLD
+• Once the Product is sold, we will change the flag and then update the Stock DB and make an entry in sales report</t>
+  </si>
+  <si>
+    <t>Damage/Return Data update
+• Update the Bill Details and Inventory</t>
+  </si>
+  <si>
+    <t>Business Type Selection</t>
+  </si>
+  <si>
+    <t>Give pre-filled data based on type, along with OTHER's options</t>
   </si>
 </sst>
 </file>
@@ -313,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +390,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -362,35 +426,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,12 +829,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -726,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,7 +1044,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="29" t="s">
         <v>67</v>
       </c>
       <c r="B36" t="s">
@@ -986,261 +1129,366 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>